--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Icosl-Cd28.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Icosl-Cd28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.26067636396232</v>
+        <v>10.14972333333333</v>
       </c>
       <c r="H2">
-        <v>2.26067636396232</v>
+        <v>30.44917</v>
       </c>
       <c r="I2">
-        <v>0.1720089762429283</v>
+        <v>0.4728485742924058</v>
       </c>
       <c r="J2">
-        <v>0.1720089762429283</v>
+        <v>0.4728485742924059</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.92293824990153</v>
+        <v>0.1791996666666667</v>
       </c>
       <c r="N2">
-        <v>3.92293824990153</v>
+        <v>0.537599</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.04251079199666429</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.04251079199666429</v>
       </c>
       <c r="Q2">
-        <v>8.868493778836097</v>
+        <v>1.818827038092222</v>
       </c>
       <c r="R2">
-        <v>8.868493778836097</v>
+        <v>16.36944334283</v>
       </c>
       <c r="S2">
-        <v>0.1720089762429283</v>
+        <v>0.02010116738766372</v>
       </c>
       <c r="T2">
-        <v>0.1720089762429283</v>
+        <v>0.02010116738766373</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.79598299065645</v>
+        <v>10.14972333333333</v>
       </c>
       <c r="H3">
-        <v>1.79598299065645</v>
+        <v>30.44917</v>
       </c>
       <c r="I3">
-        <v>0.1366516678358467</v>
+        <v>0.4728485742924058</v>
       </c>
       <c r="J3">
-        <v>0.1366516678358467</v>
+        <v>0.4728485742924059</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.92293824990153</v>
+        <v>4.036192666666667</v>
       </c>
       <c r="N3">
-        <v>3.92293824990153</v>
+        <v>12.108578</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9574892080033358</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9574892080033357</v>
       </c>
       <c r="Q3">
-        <v>7.04553037021873</v>
+        <v>40.96623888669556</v>
       </c>
       <c r="R3">
-        <v>7.04553037021873</v>
+        <v>368.69614998026</v>
       </c>
       <c r="S3">
-        <v>0.1366516678358467</v>
+        <v>0.4527474069047421</v>
       </c>
       <c r="T3">
-        <v>0.1366516678358467</v>
+        <v>0.4527474069047422</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.555188824885001</v>
+        <v>1.876575666666667</v>
       </c>
       <c r="H4">
-        <v>8.555188824885001</v>
+        <v>5.629727</v>
       </c>
       <c r="I4">
-        <v>0.650942034336206</v>
+        <v>0.08742466167732857</v>
       </c>
       <c r="J4">
-        <v>0.650942034336206</v>
+        <v>0.08742466167732858</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.92293824990153</v>
+        <v>0.1791996666666667</v>
       </c>
       <c r="N4">
-        <v>3.92293824990153</v>
+        <v>0.537599</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.04251079199666429</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.04251079199666429</v>
       </c>
       <c r="Q4">
-        <v>33.56147747627149</v>
+        <v>0.3362817339414444</v>
       </c>
       <c r="R4">
-        <v>33.56147747627149</v>
+        <v>3.026535605473</v>
       </c>
       <c r="S4">
-        <v>0.650942034336206</v>
+        <v>0.003716491607943663</v>
       </c>
       <c r="T4">
-        <v>0.650942034336206</v>
+        <v>0.003716491607943663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,300 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.530933164474268</v>
+        <v>1.876575666666667</v>
       </c>
       <c r="H5">
-        <v>0.530933164474268</v>
+        <v>5.629727</v>
       </c>
       <c r="I5">
-        <v>0.04039732158501892</v>
+        <v>0.08742466167732857</v>
       </c>
       <c r="J5">
-        <v>0.04039732158501892</v>
+        <v>0.08742466167732858</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.92293824990153</v>
+        <v>4.036192666666667</v>
       </c>
       <c r="N5">
-        <v>3.92293824990153</v>
+        <v>12.108578</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9574892080033358</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9574892080033357</v>
       </c>
       <c r="Q5">
-        <v>2.082818019057366</v>
+        <v>7.574220944245111</v>
       </c>
       <c r="R5">
-        <v>2.082818019057366</v>
+        <v>68.167988498206</v>
       </c>
       <c r="S5">
-        <v>0.04039732158501892</v>
+        <v>0.08370817006938491</v>
       </c>
       <c r="T5">
-        <v>0.04039732158501892</v>
+        <v>0.08370817006938491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>8.840163333333335</v>
+      </c>
+      <c r="H6">
+        <v>26.52049</v>
+      </c>
+      <c r="I6">
+        <v>0.4118396621660297</v>
+      </c>
+      <c r="J6">
+        <v>0.4118396621660297</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.1791996666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.537599</v>
+      </c>
+      <c r="O6">
+        <v>0.04251079199666429</v>
+      </c>
+      <c r="P6">
+        <v>0.04251079199666429</v>
+      </c>
+      <c r="Q6">
+        <v>1.584154322612223</v>
+      </c>
+      <c r="R6">
+        <v>14.25738890351</v>
+      </c>
+      <c r="S6">
+        <v>0.01750763021431658</v>
+      </c>
+      <c r="T6">
+        <v>0.01750763021431658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8.840163333333335</v>
+      </c>
+      <c r="H7">
+        <v>26.52049</v>
+      </c>
+      <c r="I7">
+        <v>0.4118396621660297</v>
+      </c>
+      <c r="J7">
+        <v>0.4118396621660297</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.036192666666667</v>
+      </c>
+      <c r="N7">
+        <v>12.108578</v>
+      </c>
+      <c r="O7">
+        <v>0.9574892080033358</v>
+      </c>
+      <c r="P7">
+        <v>0.9574892080033357</v>
+      </c>
+      <c r="Q7">
+        <v>35.68060241813556</v>
+      </c>
+      <c r="R7">
+        <v>321.12542176322</v>
+      </c>
+      <c r="S7">
+        <v>0.3943320319517131</v>
+      </c>
+      <c r="T7">
+        <v>0.3943320319517132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5985983333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.795795</v>
+      </c>
+      <c r="I8">
+        <v>0.02788710186423574</v>
+      </c>
+      <c r="J8">
+        <v>0.02788710186423574</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1791996666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.537599</v>
+      </c>
+      <c r="O8">
+        <v>0.04251079199666429</v>
+      </c>
+      <c r="P8">
+        <v>0.04251079199666429</v>
+      </c>
+      <c r="Q8">
+        <v>0.1072686218005556</v>
+      </c>
+      <c r="R8">
+        <v>0.9654175962050001</v>
+      </c>
+      <c r="S8">
+        <v>0.001185502786740314</v>
+      </c>
+      <c r="T8">
+        <v>0.001185502786740315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5985983333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.795795</v>
+      </c>
+      <c r="I9">
+        <v>0.02788710186423574</v>
+      </c>
+      <c r="J9">
+        <v>0.02788710186423574</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.036192666666667</v>
+      </c>
+      <c r="N9">
+        <v>12.108578</v>
+      </c>
+      <c r="O9">
+        <v>0.9574892080033358</v>
+      </c>
+      <c r="P9">
+        <v>0.9574892080033357</v>
+      </c>
+      <c r="Q9">
+        <v>2.416058203278889</v>
+      </c>
+      <c r="R9">
+        <v>21.74452382951</v>
+      </c>
+      <c r="S9">
+        <v>0.02670159907749543</v>
+      </c>
+      <c r="T9">
+        <v>0.02670159907749543</v>
       </c>
     </row>
   </sheetData>
